--- a/bayern-bvb-fichajes-filtro@3.xlsx
+++ b/bayern-bvb-fichajes-filtro@3.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCBBVB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enado\FCBBVB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2F3B17-9994-4217-B784-913E20332BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03541B38-0F69-49F3-9254-667E3760C793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="bayern bvb fichajes filtro@2 xl" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bayern bvb fichajes filtro@2 xl'!$A$1:$H$495</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="603">
   <si>
     <t>Jugador</t>
   </si>
@@ -1754,27 +1757,108 @@
   </si>
   <si>
     <t>Atlético-MG</t>
+  </si>
+  <si>
+    <t>Michael Olise</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Hiroki Ito</t>
+  </si>
+  <si>
+    <t>Bryan Zaragoza</t>
+  </si>
+  <si>
+    <t>Nestory Irankunda</t>
+  </si>
+  <si>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>Armindo Sieb</t>
+  </si>
+  <si>
+    <t>Maurice Krattenmacher</t>
+  </si>
+  <si>
+    <t>Gibson Nana Adu</t>
+  </si>
+  <si>
+    <t>Lovro Zvonarek</t>
+  </si>
+  <si>
+    <t>Adam Aznou</t>
+  </si>
+  <si>
+    <t>Noel Aséko Nkili</t>
+  </si>
+  <si>
+    <t>B. Leverkusen</t>
+  </si>
+  <si>
+    <t>SV Elversberg</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>SuperSport HNL</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Joao Palhinha</t>
+  </si>
+  <si>
+    <t>Waldemar Anton</t>
+  </si>
+  <si>
+    <t>Serhou Guirassy</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Royal Antwerpen</t>
+  </si>
+  <si>
+    <t>Belgien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1782,18 +1866,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B484E89F-EDB7-47CD-B86C-6EB668A85E54}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2122,16 +2251,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H515" sqref="H515:H519"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="9.140625" customWidth="1"/>
+    <col min="1" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2314,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2340,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2366,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2261,7 +2392,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2287,7 +2418,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2444,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2470,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2365,7 +2496,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2391,7 +2522,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2417,7 +2548,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2443,7 +2574,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2469,7 +2600,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2495,7 +2626,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2521,7 +2652,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2547,7 +2678,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2704,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2599,7 +2730,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2756,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2651,7 +2782,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2808,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2703,7 +2834,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2729,7 +2860,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2755,7 +2886,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2781,7 +2912,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2807,7 +2938,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2833,7 +2964,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2859,7 +2990,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2885,7 +3016,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2911,7 +3042,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2937,7 +3068,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2963,7 +3094,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2989,7 +3120,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3015,7 +3146,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3041,7 +3172,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -3067,7 +3198,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3093,7 +3224,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3119,7 +3250,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3145,7 +3276,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3171,7 +3302,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3197,7 +3328,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3223,7 +3354,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3249,7 +3380,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3275,7 +3406,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3301,7 +3432,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3327,7 +3458,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3353,7 +3484,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3379,7 +3510,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -3405,7 +3536,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -3431,7 +3562,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -3457,7 +3588,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -3483,7 +3614,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3509,7 +3640,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -3535,7 +3666,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -3561,7 +3692,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3587,7 +3718,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3613,7 +3744,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -3639,7 +3770,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -3665,7 +3796,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -3691,7 +3822,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -3717,7 +3848,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -3743,7 +3874,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -3769,7 +3900,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -3795,7 +3926,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -3821,7 +3952,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -3847,7 +3978,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -3873,7 +4004,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -3899,7 +4030,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -3925,7 +4056,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -3951,7 +4082,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -3977,7 +4108,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -4003,7 +4134,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -4029,7 +4160,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -4055,7 +4186,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -4081,7 +4212,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -4107,7 +4238,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -4133,7 +4264,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -4159,7 +4290,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -4185,7 +4316,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -4211,7 +4342,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -4237,7 +4368,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -4263,7 +4394,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -4289,7 +4420,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4315,7 +4446,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -4341,7 +4472,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -4367,7 +4498,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -4393,7 +4524,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -4419,7 +4550,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -4445,7 +4576,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>148</v>
       </c>
@@ -4471,7 +4602,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -4497,7 +4628,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>154</v>
       </c>
@@ -4523,7 +4654,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -4549,7 +4680,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -4575,7 +4706,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -4601,7 +4732,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -4627,7 +4758,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -4653,7 +4784,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -4679,7 +4810,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>162</v>
       </c>
@@ -4705,7 +4836,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -4731,7 +4862,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>167</v>
       </c>
@@ -4757,7 +4888,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>168</v>
       </c>
@@ -4783,7 +4914,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -4809,7 +4940,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>168</v>
       </c>
@@ -4835,7 +4966,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>173</v>
       </c>
@@ -4861,7 +4992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>174</v>
       </c>
@@ -4887,7 +5018,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -4913,7 +5044,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -4939,7 +5070,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>177</v>
       </c>
@@ -4965,7 +5096,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -4991,7 +5122,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -5017,7 +5148,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>180</v>
       </c>
@@ -5043,7 +5174,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>183</v>
       </c>
@@ -5069,7 +5200,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -5095,7 +5226,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -5121,7 +5252,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -5147,7 +5278,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -5173,7 +5304,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -5199,7 +5330,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>194</v>
       </c>
@@ -5225,7 +5356,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>195</v>
       </c>
@@ -5251,7 +5382,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>196</v>
       </c>
@@ -5277,7 +5408,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>197</v>
       </c>
@@ -5303,7 +5434,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>177</v>
       </c>
@@ -5329,7 +5460,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>174</v>
       </c>
@@ -5355,7 +5486,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -5381,7 +5512,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>199</v>
       </c>
@@ -5407,7 +5538,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -5433,7 +5564,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -5459,7 +5590,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>205</v>
       </c>
@@ -5485,7 +5616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -5511,7 +5642,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -5537,7 +5668,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -5563,7 +5694,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>207</v>
       </c>
@@ -5589,7 +5720,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -5615,7 +5746,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -5641,7 +5772,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -5667,7 +5798,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -5693,7 +5824,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>94</v>
       </c>
@@ -5719,7 +5850,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -5745,7 +5876,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -5771,7 +5902,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -5797,7 +5928,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -5823,7 +5954,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>214</v>
       </c>
@@ -5849,7 +5980,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>205</v>
       </c>
@@ -5875,7 +6006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -5901,7 +6032,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -5927,7 +6058,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>217</v>
       </c>
@@ -5953,7 +6084,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>218</v>
       </c>
@@ -5979,7 +6110,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>219</v>
       </c>
@@ -6005,7 +6136,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>220</v>
       </c>
@@ -6031,7 +6162,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -6057,7 +6188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -6083,7 +6214,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>223</v>
       </c>
@@ -6109,7 +6240,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -6135,7 +6266,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>225</v>
       </c>
@@ -6161,7 +6292,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>226</v>
       </c>
@@ -6187,7 +6318,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>227</v>
       </c>
@@ -6213,7 +6344,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>228</v>
       </c>
@@ -6239,7 +6370,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>229</v>
       </c>
@@ -6265,7 +6396,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>230</v>
       </c>
@@ -6291,7 +6422,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>218</v>
       </c>
@@ -6317,7 +6448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>231</v>
       </c>
@@ -6343,7 +6474,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>233</v>
       </c>
@@ -6369,7 +6500,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>234</v>
       </c>
@@ -6395,7 +6526,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>235</v>
       </c>
@@ -6421,7 +6552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>228</v>
       </c>
@@ -6447,7 +6578,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>236</v>
       </c>
@@ -6473,7 +6604,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>237</v>
       </c>
@@ -6499,7 +6630,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -6525,7 +6656,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>239</v>
       </c>
@@ -6551,7 +6682,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>242</v>
       </c>
@@ -6577,7 +6708,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>243</v>
       </c>
@@ -6603,7 +6734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>244</v>
       </c>
@@ -6629,7 +6760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>246</v>
       </c>
@@ -6655,7 +6786,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>247</v>
       </c>
@@ -6681,7 +6812,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -6707,7 +6838,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>248</v>
       </c>
@@ -6733,7 +6864,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>197</v>
       </c>
@@ -6759,7 +6890,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>229</v>
       </c>
@@ -6785,7 +6916,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -6811,7 +6942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>250</v>
       </c>
@@ -6837,7 +6968,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -6863,7 +6994,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>237</v>
       </c>
@@ -6889,7 +7020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>253</v>
       </c>
@@ -6915,7 +7046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>228</v>
       </c>
@@ -6941,7 +7072,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>228</v>
       </c>
@@ -6967,7 +7098,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>230</v>
       </c>
@@ -6993,7 +7124,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>256</v>
       </c>
@@ -7019,7 +7150,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>257</v>
       </c>
@@ -7045,7 +7176,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>258</v>
       </c>
@@ -7071,7 +7202,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -7097,7 +7228,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>261</v>
       </c>
@@ -7123,7 +7254,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>228</v>
       </c>
@@ -7149,7 +7280,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>263</v>
       </c>
@@ -7175,7 +7306,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>237</v>
       </c>
@@ -7201,7 +7332,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -7227,7 +7358,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -7253,7 +7384,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -7279,7 +7410,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -7305,7 +7436,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>267</v>
       </c>
@@ -7331,7 +7462,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>268</v>
       </c>
@@ -7357,7 +7488,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>236</v>
       </c>
@@ -7383,7 +7514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>271</v>
       </c>
@@ -7409,7 +7540,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>273</v>
       </c>
@@ -7435,7 +7566,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>274</v>
       </c>
@@ -7461,7 +7592,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -7487,7 +7618,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>276</v>
       </c>
@@ -7513,7 +7644,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>277</v>
       </c>
@@ -7539,7 +7670,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>278</v>
       </c>
@@ -7565,7 +7696,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>256</v>
       </c>
@@ -7591,7 +7722,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>280</v>
       </c>
@@ -7617,7 +7748,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>281</v>
       </c>
@@ -7643,7 +7774,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>275</v>
       </c>
@@ -7669,7 +7800,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>283</v>
       </c>
@@ -7695,7 +7826,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -7721,7 +7852,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>286</v>
       </c>
@@ -7747,7 +7878,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>252</v>
       </c>
@@ -7773,7 +7904,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -7799,7 +7930,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>290</v>
       </c>
@@ -7825,7 +7956,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>291</v>
       </c>
@@ -7851,7 +7982,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -7877,7 +8008,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>294</v>
       </c>
@@ -7903,7 +8034,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>295</v>
       </c>
@@ -7929,7 +8060,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>296</v>
       </c>
@@ -7955,7 +8086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>299</v>
       </c>
@@ -7981,7 +8112,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>300</v>
       </c>
@@ -8007,7 +8138,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>301</v>
       </c>
@@ -8033,7 +8164,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>304</v>
       </c>
@@ -8059,7 +8190,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -8085,7 +8216,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>309</v>
       </c>
@@ -8111,7 +8242,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>311</v>
       </c>
@@ -8137,7 +8268,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>313</v>
       </c>
@@ -8163,7 +8294,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -8189,7 +8320,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>38</v>
       </c>
@@ -8215,7 +8346,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>315</v>
       </c>
@@ -8241,7 +8372,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>316</v>
       </c>
@@ -8267,7 +8398,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -8293,7 +8424,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -8319,7 +8450,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>321</v>
       </c>
@@ -8345,7 +8476,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>323</v>
       </c>
@@ -8371,7 +8502,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>325</v>
       </c>
@@ -8397,7 +8528,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>326</v>
       </c>
@@ -8423,7 +8554,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>327</v>
       </c>
@@ -8449,7 +8580,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>176</v>
       </c>
@@ -8475,7 +8606,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>330</v>
       </c>
@@ -8501,7 +8632,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>332</v>
       </c>
@@ -8527,7 +8658,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>333</v>
       </c>
@@ -8553,7 +8684,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>334</v>
       </c>
@@ -8579,7 +8710,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>335</v>
       </c>
@@ -8605,7 +8736,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>336</v>
       </c>
@@ -8631,7 +8762,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>337</v>
       </c>
@@ -8657,7 +8788,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>339</v>
       </c>
@@ -8683,7 +8814,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>340</v>
       </c>
@@ -8709,7 +8840,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>342</v>
       </c>
@@ -8735,7 +8866,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>316</v>
       </c>
@@ -8761,7 +8892,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>311</v>
       </c>
@@ -8787,7 +8918,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>343</v>
       </c>
@@ -8813,7 +8944,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>304</v>
       </c>
@@ -8839,7 +8970,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>344</v>
       </c>
@@ -8865,7 +8996,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>337</v>
       </c>
@@ -8891,7 +9022,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>345</v>
       </c>
@@ -8917,7 +9048,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>346</v>
       </c>
@@ -8943,7 +9074,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>347</v>
       </c>
@@ -8969,7 +9100,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>349</v>
       </c>
@@ -8995,7 +9126,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>350</v>
       </c>
@@ -9021,7 +9152,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>352</v>
       </c>
@@ -9047,7 +9178,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>354</v>
       </c>
@@ -9073,7 +9204,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>356</v>
       </c>
@@ -9099,7 +9230,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>357</v>
       </c>
@@ -9125,7 +9256,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>358</v>
       </c>
@@ -9151,7 +9282,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>334</v>
       </c>
@@ -9177,7 +9308,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>35</v>
       </c>
@@ -9203,7 +9334,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>360</v>
       </c>
@@ -9229,7 +9360,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>361</v>
       </c>
@@ -9255,7 +9386,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>363</v>
       </c>
@@ -9281,7 +9412,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>364</v>
       </c>
@@ -9307,7 +9438,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>365</v>
       </c>
@@ -9333,7 +9464,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>367</v>
       </c>
@@ -9359,7 +9490,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>368</v>
       </c>
@@ -9385,7 +9516,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>369</v>
       </c>
@@ -9411,7 +9542,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>334</v>
       </c>
@@ -9437,7 +9568,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>371</v>
       </c>
@@ -9463,7 +9594,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>372</v>
       </c>
@@ -9489,7 +9620,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>375</v>
       </c>
@@ -9515,7 +9646,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>378</v>
       </c>
@@ -9541,7 +9672,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>379</v>
       </c>
@@ -9567,7 +9698,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>382</v>
       </c>
@@ -9593,7 +9724,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -9619,7 +9750,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>384</v>
       </c>
@@ -9645,7 +9776,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>385</v>
       </c>
@@ -9671,7 +9802,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>386</v>
       </c>
@@ -9697,7 +9828,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>387</v>
       </c>
@@ -9723,7 +9854,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -9749,7 +9880,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>387</v>
       </c>
@@ -9775,7 +9906,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>388</v>
       </c>
@@ -9801,7 +9932,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>389</v>
       </c>
@@ -9827,7 +9958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>391</v>
       </c>
@@ -9853,7 +9984,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>392</v>
       </c>
@@ -9879,7 +10010,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>393</v>
       </c>
@@ -9905,7 +10036,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>394</v>
       </c>
@@ -9931,7 +10062,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>395</v>
       </c>
@@ -9957,7 +10088,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>367</v>
       </c>
@@ -9983,7 +10114,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>399</v>
       </c>
@@ -10009,7 +10140,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>364</v>
       </c>
@@ -10035,7 +10166,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>358</v>
       </c>
@@ -10061,7 +10192,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>401</v>
       </c>
@@ -10087,7 +10218,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>402</v>
       </c>
@@ -10113,7 +10244,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>405</v>
       </c>
@@ -10139,7 +10270,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>406</v>
       </c>
@@ -10165,7 +10296,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>85</v>
       </c>
@@ -10191,7 +10322,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>407</v>
       </c>
@@ -10217,7 +10348,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>408</v>
       </c>
@@ -10243,7 +10374,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>409</v>
       </c>
@@ -10269,7 +10400,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>410</v>
       </c>
@@ -10295,7 +10426,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>411</v>
       </c>
@@ -10321,7 +10452,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>412</v>
       </c>
@@ -10347,7 +10478,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>375</v>
       </c>
@@ -10373,7 +10504,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>342</v>
       </c>
@@ -10399,7 +10530,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>413</v>
       </c>
@@ -10425,7 +10556,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>183</v>
       </c>
@@ -10451,7 +10582,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>415</v>
       </c>
@@ -10477,7 +10608,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>418</v>
       </c>
@@ -10503,7 +10634,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>419</v>
       </c>
@@ -10529,7 +10660,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>421</v>
       </c>
@@ -10555,7 +10686,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>422</v>
       </c>
@@ -10581,7 +10712,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>173</v>
       </c>
@@ -10607,7 +10738,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>423</v>
       </c>
@@ -10633,7 +10764,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>424</v>
       </c>
@@ -10659,7 +10790,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>425</v>
       </c>
@@ -10685,7 +10816,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>426</v>
       </c>
@@ -10711,7 +10842,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>344</v>
       </c>
@@ -10737,7 +10868,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>427</v>
       </c>
@@ -10763,7 +10894,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>235</v>
       </c>
@@ -10789,7 +10920,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>429</v>
       </c>
@@ -10815,7 +10946,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>431</v>
       </c>
@@ -10841,7 +10972,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>85</v>
       </c>
@@ -10867,7 +10998,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>411</v>
       </c>
@@ -10893,7 +11024,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>406</v>
       </c>
@@ -10919,7 +11050,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>173</v>
       </c>
@@ -10945,7 +11076,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>184</v>
       </c>
@@ -10971,7 +11102,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>85</v>
       </c>
@@ -10997,7 +11128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>432</v>
       </c>
@@ -11023,7 +11154,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>358</v>
       </c>
@@ -11049,7 +11180,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>433</v>
       </c>
@@ -11075,7 +11206,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>434</v>
       </c>
@@ -11101,7 +11232,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>435</v>
       </c>
@@ -11127,7 +11258,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>406</v>
       </c>
@@ -11153,7 +11284,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>424</v>
       </c>
@@ -11179,7 +11310,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>423</v>
       </c>
@@ -11205,7 +11336,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>425</v>
       </c>
@@ -11231,7 +11362,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>412</v>
       </c>
@@ -11257,7 +11388,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>438</v>
       </c>
@@ -11283,7 +11414,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>440</v>
       </c>
@@ -11309,7 +11440,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -11335,7 +11466,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>442</v>
       </c>
@@ -11361,7 +11492,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>443</v>
       </c>
@@ -11387,7 +11518,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>444</v>
       </c>
@@ -11413,7 +11544,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>384</v>
       </c>
@@ -11439,7 +11570,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>446</v>
       </c>
@@ -11465,7 +11596,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>447</v>
       </c>
@@ -11491,7 +11622,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>448</v>
       </c>
@@ -11517,7 +11648,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>423</v>
       </c>
@@ -11543,7 +11674,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>424</v>
       </c>
@@ -11569,7 +11700,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>411</v>
       </c>
@@ -11595,7 +11726,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>450</v>
       </c>
@@ -11621,7 +11752,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>252</v>
       </c>
@@ -11647,7 +11778,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>452</v>
       </c>
@@ -11673,7 +11804,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>453</v>
       </c>
@@ -11699,7 +11830,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>419</v>
       </c>
@@ -11725,7 +11856,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>358</v>
       </c>
@@ -11751,7 +11882,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>455</v>
       </c>
@@ -11777,7 +11908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>456</v>
       </c>
@@ -11803,7 +11934,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>457</v>
       </c>
@@ -11829,7 +11960,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>458</v>
       </c>
@@ -11855,7 +11986,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>459</v>
       </c>
@@ -11881,7 +12012,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>336</v>
       </c>
@@ -11907,7 +12038,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>461</v>
       </c>
@@ -11933,7 +12064,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>462</v>
       </c>
@@ -11959,7 +12090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>463</v>
       </c>
@@ -11985,7 +12116,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>464</v>
       </c>
@@ -12011,7 +12142,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>465</v>
       </c>
@@ -12037,7 +12168,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>450</v>
       </c>
@@ -12063,7 +12194,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>184</v>
       </c>
@@ -12089,7 +12220,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>467</v>
       </c>
@@ -12115,7 +12246,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>443</v>
       </c>
@@ -12141,7 +12272,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>468</v>
       </c>
@@ -12167,7 +12298,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>421</v>
       </c>
@@ -12193,7 +12324,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>469</v>
       </c>
@@ -12219,7 +12350,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>281</v>
       </c>
@@ -12245,7 +12376,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>472</v>
       </c>
@@ -12271,7 +12402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>473</v>
       </c>
@@ -12297,7 +12428,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>476</v>
       </c>
@@ -12323,7 +12454,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>479</v>
       </c>
@@ -12349,7 +12480,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>480</v>
       </c>
@@ -12375,7 +12506,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>482</v>
       </c>
@@ -12401,7 +12532,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>372</v>
       </c>
@@ -12427,7 +12558,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>447</v>
       </c>
@@ -12453,7 +12584,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>483</v>
       </c>
@@ -12479,7 +12610,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>485</v>
       </c>
@@ -12505,7 +12636,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>486</v>
       </c>
@@ -12531,7 +12662,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>489</v>
       </c>
@@ -12557,7 +12688,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>311</v>
       </c>
@@ -12583,7 +12714,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>490</v>
       </c>
@@ -12609,7 +12740,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>336</v>
       </c>
@@ -12635,7 +12766,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>491</v>
       </c>
@@ -12661,7 +12792,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>494</v>
       </c>
@@ -12687,7 +12818,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>496</v>
       </c>
@@ -12713,7 +12844,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>499</v>
       </c>
@@ -12739,7 +12870,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>500</v>
       </c>
@@ -12765,7 +12896,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>490</v>
       </c>
@@ -12791,7 +12922,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>502</v>
       </c>
@@ -12817,7 +12948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>413</v>
       </c>
@@ -12843,7 +12974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>503</v>
       </c>
@@ -12869,7 +13000,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>504</v>
       </c>
@@ -12895,7 +13026,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>506</v>
       </c>
@@ -12921,7 +13052,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>508</v>
       </c>
@@ -12947,7 +13078,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>511</v>
       </c>
@@ -12973,7 +13104,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>512</v>
       </c>
@@ -12999,7 +13130,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>513</v>
       </c>
@@ -13025,7 +13156,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>514</v>
       </c>
@@ -13051,7 +13182,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>464</v>
       </c>
@@ -13077,7 +13208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>516</v>
       </c>
@@ -13103,7 +13234,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>480</v>
       </c>
@@ -13129,7 +13260,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>518</v>
       </c>
@@ -13155,7 +13286,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>519</v>
       </c>
@@ -13181,7 +13312,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>463</v>
       </c>
@@ -13207,7 +13338,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>520</v>
       </c>
@@ -13233,7 +13364,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>521</v>
       </c>
@@ -13259,7 +13390,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -13285,7 +13416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>522</v>
       </c>
@@ -13311,7 +13442,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>512</v>
       </c>
@@ -13337,7 +13468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>523</v>
       </c>
@@ -13363,7 +13494,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>162</v>
       </c>
@@ -13389,7 +13520,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>525</v>
       </c>
@@ -13415,7 +13546,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>526</v>
       </c>
@@ -13441,7 +13572,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>527</v>
       </c>
@@ -13467,7 +13598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>528</v>
       </c>
@@ -13493,7 +13624,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>529</v>
       </c>
@@ -13519,7 +13650,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -13545,7 +13676,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>419</v>
       </c>
@@ -13571,7 +13702,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>503</v>
       </c>
@@ -13597,7 +13728,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>521</v>
       </c>
@@ -13623,7 +13754,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -13649,7 +13780,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>535</v>
       </c>
@@ -13675,7 +13806,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>162</v>
       </c>
@@ -13701,7 +13832,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>537</v>
       </c>
@@ -13727,7 +13858,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>538</v>
       </c>
@@ -13753,7 +13884,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>539</v>
       </c>
@@ -13779,7 +13910,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>540</v>
       </c>
@@ -13805,7 +13936,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>541</v>
       </c>
@@ -13831,7 +13962,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>542</v>
       </c>
@@ -13857,7 +13988,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>529</v>
       </c>
@@ -13883,7 +14014,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>421</v>
       </c>
@@ -13909,7 +14040,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>465</v>
       </c>
@@ -13935,7 +14066,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>482</v>
       </c>
@@ -13961,7 +14092,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>544</v>
       </c>
@@ -13987,7 +14118,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>482</v>
       </c>
@@ -14013,7 +14144,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>545</v>
       </c>
@@ -14039,7 +14170,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>500</v>
       </c>
@@ -14065,7 +14196,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>467</v>
       </c>
@@ -14091,7 +14222,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>508</v>
       </c>
@@ -14117,7 +14248,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>521</v>
       </c>
@@ -14143,7 +14274,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>549</v>
       </c>
@@ -14169,7 +14300,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>491</v>
       </c>
@@ -14195,7 +14326,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>540</v>
       </c>
@@ -14221,7 +14352,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>552</v>
       </c>
@@ -14247,7 +14378,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>299</v>
       </c>
@@ -14273,7 +14404,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>553</v>
       </c>
@@ -14299,7 +14430,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>554</v>
       </c>
@@ -14325,7 +14456,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>529</v>
       </c>
@@ -14351,7 +14482,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>555</v>
       </c>
@@ -14377,7 +14508,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>556</v>
       </c>
@@ -14403,7 +14534,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>61</v>
       </c>
@@ -14429,7 +14560,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>557</v>
       </c>
@@ -14455,7 +14586,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>558</v>
       </c>
@@ -14481,7 +14612,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>560</v>
       </c>
@@ -14507,7 +14638,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>561</v>
       </c>
@@ -14533,7 +14664,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>562</v>
       </c>
@@ -14559,7 +14690,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>563</v>
       </c>
@@ -14585,7 +14716,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>564</v>
       </c>
@@ -14611,7 +14742,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>391</v>
       </c>
@@ -14637,7 +14768,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>486</v>
       </c>
@@ -14663,7 +14794,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>565</v>
       </c>
@@ -14689,7 +14820,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>566</v>
       </c>
@@ -14715,7 +14846,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>567</v>
       </c>
@@ -14741,7 +14872,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>455</v>
       </c>
@@ -14767,7 +14898,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>568</v>
       </c>
@@ -14793,7 +14924,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>569</v>
       </c>
@@ -14819,7 +14950,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>570</v>
       </c>
@@ -14845,7 +14976,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>572</v>
       </c>
@@ -14871,7 +15002,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>325</v>
       </c>
@@ -14897,7 +15028,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>573</v>
       </c>
@@ -14923,7 +15054,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>574</v>
       </c>
@@ -14949,7 +15080,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>576</v>
       </c>
@@ -14975,7 +15106,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>344</v>
       </c>
@@ -15001,9 +15132,634 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B496" s="2">
+        <v>22</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H496">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B497" s="5">
+        <v>29</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G497" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H497">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B498" s="2">
+        <v>25</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H498">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B499" s="5">
+        <v>22</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G499" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H499">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B500" s="2">
+        <v>18</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H500">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B501" s="5">
+        <v>21</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G501" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H501">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B502" s="2">
+        <v>30</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H502">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B503" s="5">
+        <v>18</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G503" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H503">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B504" s="2">
+        <v>16</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H504">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B505" s="5">
+        <v>19</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G505" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B506" s="2">
+        <v>18</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H506">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B507" s="5">
+        <v>18</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H507">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B508" s="2">
+        <v>24</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B509" s="5">
+        <v>22</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G509" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H509">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B510" s="2">
+        <v>18</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H510">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A511" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B511" s="5">
+        <v>18</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G511" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H511">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B512" s="2">
+        <v>20</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H512">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B513" s="5">
+        <v>21</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G513" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H513">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B514" s="2">
+        <v>21</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B515" s="2">
+        <v>27</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H515">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B516" s="5">
+        <v>28</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G516" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H516">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B517" s="2">
+        <v>21</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H517">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B518" s="5">
+        <v>19</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G518" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H518">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B519" s="2">
+        <v>20</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H519">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H495" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/bayern-bvb-fichajes-filtro@3.xlsx
+++ b/bayern-bvb-fichajes-filtro@3.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCBBVB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2F3B17-9994-4217-B784-913E20332BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD625C9-4396-476A-86CE-F760D63D96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="bayern bvb fichajes filtro@2 xl" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bayern bvb fichajes filtro@2 xl'!$A$1:$H$495</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="603">
   <si>
     <t>Jugador</t>
   </si>
@@ -1754,27 +1757,108 @@
   </si>
   <si>
     <t>Atlético-MG</t>
+  </si>
+  <si>
+    <t>Michael Olise</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Hiroki Ito</t>
+  </si>
+  <si>
+    <t>Bryan Zaragoza</t>
+  </si>
+  <si>
+    <t>Nestory Irankunda</t>
+  </si>
+  <si>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>Armindo Sieb</t>
+  </si>
+  <si>
+    <t>Maurice Krattenmacher</t>
+  </si>
+  <si>
+    <t>Gibson Nana Adu</t>
+  </si>
+  <si>
+    <t>Lovro Zvonarek</t>
+  </si>
+  <si>
+    <t>Adam Aznou</t>
+  </si>
+  <si>
+    <t>Noel Aséko Nkili</t>
+  </si>
+  <si>
+    <t>B. Leverkusen</t>
+  </si>
+  <si>
+    <t>SV Elversberg</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>SuperSport HNL</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Joao Palhinha</t>
+  </si>
+  <si>
+    <t>Waldemar Anton</t>
+  </si>
+  <si>
+    <t>Serhou Guirassy</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Royal Antwerpen</t>
+  </si>
+  <si>
+    <t>Belgien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1782,18 +1866,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B484E89F-EDB7-47CD-B86C-6EB668A85E54}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2122,9 +2251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H515" sqref="H515:H519"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15001,9 +15132,634 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B496" s="2">
+        <v>22</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H496">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B497" s="5">
+        <v>29</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G497" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H497">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B498" s="2">
+        <v>25</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H498">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B499" s="5">
+        <v>22</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G499" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H499">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B500" s="2">
+        <v>18</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H500">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B501" s="5">
+        <v>21</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G501" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H501">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B502" s="2">
+        <v>30</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H502">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B503" s="5">
+        <v>18</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G503" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H503">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B504" s="2">
+        <v>16</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H504">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B505" s="5">
+        <v>19</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G505" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B506" s="2">
+        <v>18</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H506">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B507" s="5">
+        <v>18</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H507">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B508" s="2">
+        <v>24</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B509" s="5">
+        <v>22</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G509" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H509">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B510" s="2">
+        <v>18</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H510">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B511" s="5">
+        <v>18</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G511" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H511">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B512" s="2">
+        <v>20</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H512">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B513" s="5">
+        <v>21</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G513" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H513">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B514" s="2">
+        <v>21</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B515" s="2">
+        <v>27</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H515">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B516" s="5">
+        <v>28</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G516" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H516">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B517" s="2">
+        <v>21</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H517">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B518" s="5">
+        <v>19</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G518" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H518">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B519" s="2">
+        <v>20</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H519">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H495" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/bayern-bvb-fichajes-filtro@3.xlsx
+++ b/bayern-bvb-fichajes-filtro@3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCBBVB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD625C9-4396-476A-86CE-F760D63D96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB88747-F547-4D8D-A770-89AF4877C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="bayern bvb fichajes filtro@2 xl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="605">
   <si>
     <t>Jugador</t>
   </si>
@@ -1832,6 +1832,12 @@
   </si>
   <si>
     <t>Belgien</t>
+  </si>
+  <si>
+    <t>Pascal Groß</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Holve Albion</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1903,11 +1909,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1915,6 +1939,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2251,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
-  <dimension ref="A1:H519"/>
+  <dimension ref="A1:H520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H515" sqref="H515:H519"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H520" sqref="H520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15756,6 +15783,32 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B520" s="8">
+        <v>33</v>
+      </c>
+      <c r="C520" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D520" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E520" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F520" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G520" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H520">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H495" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>

--- a/bayern-bvb-fichajes-filtro@3.xlsx
+++ b/bayern-bvb-fichajes-filtro@3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCBBVB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB88747-F547-4D8D-A770-89AF4877C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5840800-0142-409A-A48A-304D173931E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
   </bookViews>
@@ -1931,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1939,9 +1939,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2280,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
   <dimension ref="A1:H520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H520" sqref="H520"/>
     </sheetView>
   </sheetViews>
@@ -15787,22 +15786,22 @@
       <c r="A520" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B520" s="8">
+      <c r="B520">
         <v>33</v>
       </c>
-      <c r="C520" s="8" t="s">
+      <c r="C520" t="s">
         <v>604</v>
       </c>
-      <c r="D520" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E520" s="8" t="s">
+      <c r="D520" t="s">
+        <v>62</v>
+      </c>
+      <c r="E520" t="s">
         <v>153</v>
       </c>
-      <c r="F520" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G520" s="9" t="s">
+      <c r="F520" t="s">
+        <v>12</v>
+      </c>
+      <c r="G520" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H520">

--- a/bayern-bvb-fichajes-filtro@3.xlsx
+++ b/bayern-bvb-fichajes-filtro@3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCBBVB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E01C57-FAB4-4727-8FF2-E6C5159A4BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBA0F4-F25A-4875-A6EB-575D7AE2C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A14204A7-E8F8-4E7D-9E9B-DC80553F3DB7}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="bayern bvb fichajes filtro@2 xl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bayern bvb fichajes filtro@2 xl'!$A$1:$H$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bayern bvb fichajes filtro@2 xl'!$A$1:$H$521</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="607">
   <si>
     <t>Jugador</t>
   </si>
@@ -1838,6 +1838,12 @@
   </si>
   <si>
     <t>Brighton &amp; Holve Albion</t>
+  </si>
+  <si>
+    <t>Yan Couto</t>
+  </si>
+  <si>
+    <t>FC Girona</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1941,6 +1947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2277,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H520" sqref="H520"/>
+      <selection activeCell="C521" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15808,8 +15817,34 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B521" s="10">
+        <v>22</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D521" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F521" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G521" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H521">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H495" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
+  <autoFilter ref="A1:H521" xr:uid="{A416F442-7BFC-4C4B-B75D-F8A8152172F9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H520">
       <sortCondition ref="H1:H495"/>
     </sortState>
